--- a/Code/Results/Cases/Case_7_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_8/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.759298507530559</v>
+        <v>0.7842935075765354</v>
       </c>
       <c r="C2">
-        <v>0.3668200295279007</v>
+        <v>0.08908757813522072</v>
       </c>
       <c r="D2">
-        <v>0.3529882636878483</v>
+        <v>0.406754295025209</v>
       </c>
       <c r="E2">
-        <v>0.2463062588015248</v>
+        <v>0.3305308029393856</v>
       </c>
       <c r="F2">
-        <v>6.541115341909602</v>
+        <v>6.734432291841983</v>
       </c>
       <c r="G2">
-        <v>0.0007880856051718128</v>
+        <v>0.0008275347532959011</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4693524914179577</v>
+        <v>0.7789738272995805</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8135968875735173</v>
+        <v>0.5638533116457651</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.505245186532079</v>
+        <v>0.6748317527939776</v>
       </c>
       <c r="C3">
-        <v>0.3124196093125704</v>
+        <v>0.07547448470920415</v>
       </c>
       <c r="D3">
-        <v>0.314357786151291</v>
+        <v>0.3679561973036556</v>
       </c>
       <c r="E3">
-        <v>0.2127714894032167</v>
+        <v>0.2855115355684035</v>
       </c>
       <c r="F3">
-        <v>5.747496233218584</v>
+        <v>5.988977095527446</v>
       </c>
       <c r="G3">
-        <v>0.000798818018898982</v>
+        <v>0.0008364078224813682</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4006889666454256</v>
+        <v>0.6668893243447087</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6971890588824579</v>
+        <v>0.4852925860827924</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.353518090908835</v>
+        <v>0.6094203544855077</v>
       </c>
       <c r="C4">
-        <v>0.2800027494821506</v>
+        <v>0.06739479346776989</v>
       </c>
       <c r="D4">
-        <v>0.2911684519017257</v>
+        <v>0.344451462394062</v>
       </c>
       <c r="E4">
-        <v>0.1927124061799788</v>
+        <v>0.2584503537741369</v>
       </c>
       <c r="F4">
-        <v>5.271523554121131</v>
+        <v>5.538726779488854</v>
       </c>
       <c r="G4">
-        <v>0.0008055307154644208</v>
+        <v>0.0008419776253766989</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3597026829429879</v>
+        <v>0.6000043140675331</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6276443686488804</v>
+        <v>0.438211519609581</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.292603371604088</v>
+        <v>0.5831606032750187</v>
       </c>
       <c r="C5">
-        <v>0.26699978950667</v>
+        <v>0.06416185203865155</v>
       </c>
       <c r="D5">
-        <v>0.2818290606113578</v>
+        <v>0.3349368581932168</v>
       </c>
       <c r="E5">
-        <v>0.1846518071616288</v>
+        <v>0.2475479511259451</v>
       </c>
       <c r="F5">
-        <v>5.079972545216151</v>
+        <v>5.356838283278648</v>
       </c>
       <c r="G5">
-        <v>0.0008083004720372582</v>
+        <v>0.000844280061015698</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3432511423787901</v>
+        <v>0.5731718557223644</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5997175709823424</v>
+        <v>0.4192768279593579</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.282539561624787</v>
+        <v>0.5788225558682427</v>
       </c>
       <c r="C6">
-        <v>0.264852073658389</v>
+        <v>0.0636283365211483</v>
       </c>
       <c r="D6">
-        <v>0.2802843114412354</v>
+        <v>0.3333603734200636</v>
       </c>
       <c r="E6">
-        <v>0.1833196712685492</v>
+        <v>0.2457446084725987</v>
       </c>
       <c r="F6">
-        <v>5.048299517107495</v>
+        <v>5.326724163017275</v>
       </c>
       <c r="G6">
-        <v>0.0008087625499093149</v>
+        <v>0.0008446644111730115</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3405333157333672</v>
+        <v>0.5687402104249344</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.595103348028367</v>
+        <v>0.4161468296939574</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.35269306196588</v>
+        <v>0.6090646738857117</v>
       </c>
       <c r="C7">
-        <v>0.279826598365716</v>
+        <v>0.0673509647130075</v>
       </c>
       <c r="D7">
-        <v>0.2910420787861199</v>
+        <v>0.3443229071472871</v>
       </c>
       <c r="E7">
-        <v>0.1926032628269922</v>
+        <v>0.2583028391249513</v>
       </c>
       <c r="F7">
-        <v>5.268931004100125</v>
+        <v>5.536267678517135</v>
       </c>
       <c r="G7">
-        <v>0.0008055679263556078</v>
+        <v>0.0008420085417312254</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3594798516268085</v>
+        <v>0.5996408053723172</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6272661544458487</v>
+        <v>0.4379551918533764</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.670716159261758</v>
+        <v>0.7461421691122041</v>
       </c>
       <c r="C8">
-        <v>0.3478322924335941</v>
+        <v>0.08432925069979547</v>
       </c>
       <c r="D8">
-        <v>0.3395439578528965</v>
+        <v>0.3933006970165849</v>
       </c>
       <c r="E8">
-        <v>0.2346204225204573</v>
+        <v>0.3148744435618909</v>
       </c>
       <c r="F8">
-        <v>6.264851640228841</v>
+        <v>6.475671139670908</v>
       </c>
       <c r="G8">
-        <v>0.0007917627632323253</v>
+        <v>0.0008305702473073171</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4454054073792975</v>
+        <v>0.739885584266176</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7730127650366754</v>
+        <v>0.5365008390468233</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.336344535636783</v>
+        <v>1.032081670174477</v>
       </c>
       <c r="C9">
-        <v>0.4911376359369797</v>
+        <v>0.1203730446992353</v>
       </c>
       <c r="D9">
-        <v>0.4400412724786804</v>
+        <v>0.4926740846867546</v>
       </c>
       <c r="E9">
-        <v>0.3222717376540487</v>
+        <v>0.4314774303354127</v>
       </c>
       <c r="F9">
-        <v>8.330035986894842</v>
+        <v>8.391412312874792</v>
       </c>
       <c r="G9">
-        <v>0.0007654926187537298</v>
+        <v>0.0008090000392580475</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.625532208285172</v>
+        <v>1.033460829141774</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.077898441209285</v>
+        <v>0.7409184248609364</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.86445317998681</v>
+        <v>1.257162333485184</v>
       </c>
       <c r="C10">
-        <v>0.6060318941795515</v>
+        <v>0.1493945710195703</v>
       </c>
       <c r="D10">
-        <v>0.5190931742571365</v>
+        <v>0.5689910008970571</v>
       </c>
       <c r="E10">
-        <v>0.3915846963552312</v>
+        <v>0.5222881285835896</v>
       </c>
       <c r="F10">
-        <v>9.952456961213727</v>
+        <v>9.866510159276089</v>
       </c>
       <c r="G10">
-        <v>0.0007463962326587536</v>
+        <v>0.0007935103386582015</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7687919902046119</v>
+        <v>1.265571848688808</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.319740873134279</v>
+        <v>0.9011100664630831</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.116953235486733</v>
+        <v>1.364022816634019</v>
       </c>
       <c r="C11">
-        <v>0.6613890091479391</v>
+        <v>0.1633812236444783</v>
       </c>
       <c r="D11">
-        <v>0.5567239021905834</v>
+        <v>0.6047626368837768</v>
       </c>
       <c r="E11">
-        <v>0.424661278278549</v>
+        <v>0.5651655301854461</v>
       </c>
       <c r="F11">
-        <v>10.72352824204751</v>
+        <v>10.55822170074902</v>
       </c>
       <c r="G11">
-        <v>0.0007376745035252873</v>
+        <v>0.0007864977711504603</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8374102659083889</v>
+        <v>1.376089993522186</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.435373674487792</v>
+        <v>0.9770085031634679</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.214723098829211</v>
+        <v>1.405250315482959</v>
       </c>
       <c r="C12">
-        <v>0.6829011931834543</v>
+        <v>0.1688137365932079</v>
       </c>
       <c r="D12">
-        <v>0.5712690212995994</v>
+        <v>0.6184928545359298</v>
       </c>
       <c r="E12">
-        <v>0.437458302345064</v>
+        <v>0.5816718790684376</v>
       </c>
       <c r="F12">
-        <v>11.021309151781</v>
+        <v>10.82371340194987</v>
       </c>
       <c r="G12">
-        <v>0.0007343587163879395</v>
+        <v>0.0007838428855913487</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8640021776751041</v>
+        <v>1.418784010618168</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.480149512116782</v>
+        <v>1.006268788683926</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.193563751778129</v>
+        <v>1.396335261696095</v>
       </c>
       <c r="C13">
-        <v>0.6782417981264075</v>
+        <v>0.1676372838668669</v>
       </c>
       <c r="D13">
-        <v>0.5681223466429515</v>
+        <v>0.6155270391151646</v>
       </c>
       <c r="E13">
-        <v>0.4346892590143625</v>
+        <v>0.5781041699970473</v>
       </c>
       <c r="F13">
-        <v>10.9569002176188</v>
+        <v>10.76636668127531</v>
       </c>
       <c r="G13">
-        <v>0.0007350735571256538</v>
+        <v>0.0007844147093021964</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8582460798238429</v>
+        <v>1.409549219535648</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.470459011739109</v>
+        <v>0.9999424892548774</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.124951140029339</v>
+        <v>1.367398613274872</v>
       </c>
       <c r="C14">
-        <v>0.6631471318520141</v>
+        <v>0.1638252856755571</v>
       </c>
       <c r="D14">
-        <v>0.5579142676971856</v>
+        <v>0.6058883328635716</v>
       </c>
       <c r="E14">
-        <v>0.4257083347153454</v>
+        <v>0.566517835496839</v>
       </c>
       <c r="F14">
-        <v>10.74790404454336</v>
+        <v>10.57998896271693</v>
       </c>
       <c r="G14">
-        <v>0.0007374020256598982</v>
+        <v>0.0007862793663038943</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.839585097967948</v>
+        <v>1.379584711514042</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.439036439402273</v>
+        <v>0.979404830078181</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.083217325905878</v>
+        <v>1.349777129699078</v>
       </c>
       <c r="C15">
-        <v>0.6539762910262255</v>
+        <v>0.1615088029562628</v>
       </c>
       <c r="D15">
-        <v>0.5517017846580359</v>
+        <v>0.6000093953800274</v>
       </c>
       <c r="E15">
-        <v>0.4202442686881298</v>
+        <v>0.5594574147271985</v>
       </c>
       <c r="F15">
-        <v>10.62067672694002</v>
+        <v>10.46630900188666</v>
       </c>
       <c r="G15">
-        <v>0.0007388263125880638</v>
+        <v>0.0007874214669658346</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8282375483971123</v>
+        <v>1.361344742741949</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.419923878775265</v>
+        <v>0.9668952554918846</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.848230074865398</v>
+        <v>1.250278458513407</v>
       </c>
       <c r="C16">
-        <v>0.6024848804428586</v>
+        <v>0.1484982004061095</v>
       </c>
       <c r="D16">
-        <v>0.5166719868309997</v>
+        <v>0.5666771441755714</v>
       </c>
       <c r="E16">
-        <v>0.3894581707723788</v>
+        <v>0.5195211525914374</v>
       </c>
       <c r="F16">
-        <v>9.902814949148961</v>
+        <v>9.821769148673894</v>
       </c>
       <c r="G16">
-        <v>0.0007469648654094751</v>
+        <v>0.0007939689581679781</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7643860721259514</v>
+        <v>1.258459436659933</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.312311654614248</v>
+        <v>0.8962177102547457</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.70746781468705</v>
+        <v>1.190463235833249</v>
       </c>
       <c r="C17">
-        <v>0.571756557531188</v>
+        <v>0.140732957855974</v>
       </c>
       <c r="D17">
-        <v>0.4956459730342431</v>
+        <v>0.5465207717756471</v>
       </c>
       <c r="E17">
-        <v>0.3709999974201423</v>
+        <v>0.4954523226475445</v>
       </c>
       <c r="F17">
-        <v>9.471570872213476</v>
+        <v>9.432049727825074</v>
       </c>
       <c r="G17">
-        <v>0.0007519434469996248</v>
+        <v>0.0007979914594589579</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7261713131004086</v>
+        <v>1.19669443309985</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.247851358614014</v>
+        <v>0.8536902404472144</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.627631751785032</v>
+        <v>1.156471752119558</v>
       </c>
       <c r="C18">
-        <v>0.5543659790152446</v>
+        <v>0.1363388524430462</v>
       </c>
       <c r="D18">
-        <v>0.4837056717773009</v>
+        <v>0.5350244226905829</v>
       </c>
       <c r="E18">
-        <v>0.3605253820099108</v>
+        <v>0.4817530576617344</v>
       </c>
       <c r="F18">
-        <v>9.226566173179975</v>
+        <v>9.209800709545959</v>
       </c>
       <c r="G18">
-        <v>0.0007548042943376318</v>
+        <v>0.0008003085620824459</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7045079548526729</v>
+        <v>1.16162367651998</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.211291586966226</v>
+        <v>0.829508696370354</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.600783454759267</v>
+        <v>1.145030357730093</v>
       </c>
       <c r="C19">
-        <v>0.5485236630472627</v>
+        <v>0.1348628459409582</v>
       </c>
       <c r="D19">
-        <v>0.4796877091587248</v>
+        <v>0.5311477088874312</v>
       </c>
       <c r="E19">
-        <v>0.3570019008672389</v>
+        <v>0.4771382989858211</v>
       </c>
       <c r="F19">
-        <v>9.144104462921518</v>
+        <v>9.134862224415713</v>
       </c>
       <c r="G19">
-        <v>0.0007557726856544761</v>
+        <v>0.0008010938076557575</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6972244643551306</v>
+        <v>1.149823679252052</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.198996780979328</v>
+        <v>0.8213668307629902</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.722333005700705</v>
+        <v>1.19678715646009</v>
       </c>
       <c r="C20">
-        <v>0.5749976010218631</v>
+        <v>0.1415519464705852</v>
       </c>
       <c r="D20">
-        <v>0.4978679956820145</v>
+        <v>0.5486561850990768</v>
       </c>
       <c r="E20">
-        <v>0.3729498740197243</v>
+        <v>0.4979992377300348</v>
       </c>
       <c r="F20">
-        <v>9.517156441520257</v>
+        <v>9.473334685257385</v>
       </c>
       <c r="G20">
-        <v>0.0007514138016225265</v>
+        <v>0.0007975629273207329</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.730205816628704</v>
+        <v>1.203221441919254</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.254658659868255</v>
+        <v>0.8581879059960684</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.145042372642763</v>
+        <v>1.375876293878548</v>
       </c>
       <c r="C21">
-        <v>0.6675649349936634</v>
+        <v>0.1649410644298968</v>
       </c>
       <c r="D21">
-        <v>0.5609041236844519</v>
+        <v>0.6087141692745206</v>
       </c>
       <c r="E21">
-        <v>0.4283384345829049</v>
+        <v>0.5699133180036782</v>
       </c>
       <c r="F21">
-        <v>10.80912472553166</v>
+        <v>10.63463105224599</v>
       </c>
       <c r="G21">
-        <v>0.0007367185246049314</v>
+        <v>0.0007857316914704967</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8450487839981875</v>
+        <v>1.388361953023406</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.448237569523243</v>
+        <v>0.9854224115174759</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.434102812954848</v>
+        <v>1.497430852283571</v>
       </c>
       <c r="C22">
-        <v>0.7313329178380457</v>
+        <v>0.181034082156998</v>
       </c>
       <c r="D22">
-        <v>0.6038563933281296</v>
+        <v>0.6490584551697509</v>
       </c>
       <c r="E22">
-        <v>0.4661520318607373</v>
+        <v>0.6185107054182453</v>
       </c>
       <c r="F22">
-        <v>11.68790970311443</v>
+        <v>11.41466582271437</v>
       </c>
       <c r="G22">
-        <v>0.0007270332169162508</v>
+        <v>0.0007780004644492872</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9237168925524344</v>
+        <v>1.51435536108994</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.580624919620675</v>
+        <v>1.071652965216011</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.278504190117701</v>
+        <v>1.432097923837659</v>
       </c>
       <c r="C23">
-        <v>0.6969586715730713</v>
+        <v>0.1723623702006023</v>
       </c>
       <c r="D23">
-        <v>0.5807502319196658</v>
+        <v>0.6274138562910423</v>
       </c>
       <c r="E23">
-        <v>0.4458034730286045</v>
+        <v>0.5924106710797616</v>
       </c>
       <c r="F23">
-        <v>11.21533590152882</v>
+        <v>10.99620382174936</v>
       </c>
       <c r="G23">
-        <v>0.0007322129736120411</v>
+        <v>0.0007821282315590978</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8813565416781444</v>
+        <v>1.446603233114899</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.509360229590129</v>
+        <v>1.025317300588924</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.715609085972972</v>
+        <v>1.193926883854033</v>
       </c>
       <c r="C24">
-        <v>0.573531474614299</v>
+        <v>0.1411814646517513</v>
       </c>
       <c r="D24">
-        <v>0.4968629627640553</v>
+        <v>0.5476904811406484</v>
       </c>
       <c r="E24">
-        <v>0.3720679109271074</v>
+        <v>0.4968473501245612</v>
       </c>
       <c r="F24">
-        <v>9.49653817626492</v>
+        <v>9.454664173914864</v>
       </c>
       <c r="G24">
-        <v>0.0007516532580320695</v>
+        <v>0.0007977566522461313</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7283808700265268</v>
+        <v>1.200269224434493</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.251579536805977</v>
+        <v>0.8561536826037397</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.150520366776846</v>
+        <v>0.9524588725725494</v>
       </c>
       <c r="C25">
-        <v>0.4509754146502019</v>
+        <v>0.1102460026077949</v>
       </c>
       <c r="D25">
-        <v>0.4120961537430645</v>
+        <v>0.4653121531914479</v>
       </c>
       <c r="E25">
-        <v>0.297836941607585</v>
+        <v>0.3991657690284072</v>
       </c>
       <c r="F25">
-        <v>7.75589086419032</v>
+        <v>7.863098666337976</v>
       </c>
       <c r="G25">
-        <v>0.0007725402663835732</v>
+        <v>0.0008147592152258477</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5752007491943516</v>
+        <v>0.9515678988676086</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9927961272266757</v>
+        <v>0.6841178241298422</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7842935075765354</v>
+        <v>0.7665201132415973</v>
       </c>
       <c r="C2">
-        <v>0.08908757813522072</v>
+        <v>0.1628910175550828</v>
       </c>
       <c r="D2">
-        <v>0.406754295025209</v>
+        <v>0.04816990490470729</v>
       </c>
       <c r="E2">
-        <v>0.3305308029393856</v>
+        <v>0.3584291506531017</v>
       </c>
       <c r="F2">
-        <v>6.734432291841983</v>
+        <v>0.8923572123452459</v>
       </c>
       <c r="G2">
-        <v>0.0008275347532959011</v>
+        <v>0.8217309746514303</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.136389268330262E-05</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5668441298206943</v>
       </c>
       <c r="K2">
-        <v>0.7789738272995805</v>
+        <v>0.5473363939189682</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5638533116457651</v>
+        <v>0.8969829463020176</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5848887976784383</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6748317527939776</v>
+        <v>0.6673538745448298</v>
       </c>
       <c r="C3">
-        <v>0.07547448470920415</v>
+        <v>0.1423630125958084</v>
       </c>
       <c r="D3">
-        <v>0.3679561973036556</v>
+        <v>0.0458562812642036</v>
       </c>
       <c r="E3">
-        <v>0.2855115355684035</v>
+        <v>0.3124471975750751</v>
       </c>
       <c r="F3">
-        <v>5.988977095527446</v>
+        <v>0.8319870607690234</v>
       </c>
       <c r="G3">
-        <v>0.0008364078224813682</v>
+        <v>0.7684799635658948</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0003631412259099687</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5472667550018855</v>
       </c>
       <c r="K3">
-        <v>0.6668893243447087</v>
+        <v>0.5287545035810624</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4852925860827924</v>
+        <v>0.781516080024133</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5083997822218151</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6094203544855077</v>
+        <v>0.6065504878134504</v>
       </c>
       <c r="C4">
-        <v>0.06739479346776989</v>
+        <v>0.1297848962453401</v>
       </c>
       <c r="D4">
-        <v>0.344451462394062</v>
+        <v>0.04440640214901492</v>
       </c>
       <c r="E4">
-        <v>0.2584503537741369</v>
+        <v>0.2842995973605369</v>
       </c>
       <c r="F4">
-        <v>5.538726779488854</v>
+        <v>0.7960190959014994</v>
       </c>
       <c r="G4">
-        <v>0.0008419776253766989</v>
+        <v>0.7368358769464294</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0008414666619662725</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5358635382232109</v>
       </c>
       <c r="K4">
-        <v>0.6000043140675331</v>
+        <v>0.5180181138446756</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.438211519609581</v>
+        <v>0.7107263354823914</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4615359201698368</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5831606032750187</v>
+        <v>0.5817844656330635</v>
       </c>
       <c r="C5">
-        <v>0.06416185203865155</v>
+        <v>0.1246632860506907</v>
       </c>
       <c r="D5">
-        <v>0.3349368581932168</v>
+        <v>0.04380823779975174</v>
       </c>
       <c r="E5">
-        <v>0.2475479511259451</v>
+        <v>0.2728446925430887</v>
       </c>
       <c r="F5">
-        <v>5.356838283278648</v>
+        <v>0.7816203470308238</v>
       </c>
       <c r="G5">
-        <v>0.000844280061015698</v>
+        <v>0.724187429044008</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.001098641587996996</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5313637807368821</v>
       </c>
       <c r="K5">
-        <v>0.5731718557223644</v>
+        <v>0.5138029381885403</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4192768279593579</v>
+        <v>0.6818941365180962</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4424563775938566</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5788225558682427</v>
+        <v>0.5776725342397242</v>
       </c>
       <c r="C6">
-        <v>0.0636283365211483</v>
+        <v>0.1238130222953657</v>
       </c>
       <c r="D6">
-        <v>0.3333603734200636</v>
+        <v>0.04370847184775428</v>
       </c>
       <c r="E6">
-        <v>0.2457446084725987</v>
+        <v>0.2709433777454109</v>
       </c>
       <c r="F6">
-        <v>5.326724163017275</v>
+        <v>0.7792445481000385</v>
       </c>
       <c r="G6">
-        <v>0.0008446644111730115</v>
+        <v>0.7221015639098169</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001144999578883032</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5306252574981727</v>
       </c>
       <c r="K6">
-        <v>0.5687402104249344</v>
+        <v>0.5131124129319318</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4161468296939574</v>
+        <v>0.677107158000311</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4392891021230412</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6090646738857117</v>
+        <v>0.6062164487931909</v>
       </c>
       <c r="C7">
-        <v>0.0673509647130075</v>
+        <v>0.1297158111246262</v>
       </c>
       <c r="D7">
-        <v>0.3443229071472871</v>
+        <v>0.04439836470359282</v>
       </c>
       <c r="E7">
-        <v>0.2583028391249513</v>
+        <v>0.2841450576366285</v>
       </c>
       <c r="F7">
-        <v>5.536267678517135</v>
+        <v>0.795823885882875</v>
       </c>
       <c r="G7">
-        <v>0.0008420085417312254</v>
+        <v>0.7366643192952864</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0008446877458201385</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5358022675419676</v>
       </c>
       <c r="K7">
-        <v>0.5996408053723172</v>
+        <v>0.517960630596356</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4379551918533764</v>
+        <v>0.7103374479294473</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.461278544049172</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7461421691122041</v>
+        <v>0.7323039845684889</v>
       </c>
       <c r="C8">
-        <v>0.08432925069979547</v>
+        <v>0.1558059718913256</v>
       </c>
       <c r="D8">
-        <v>0.3933006970165849</v>
+        <v>0.04737827330264821</v>
       </c>
       <c r="E8">
-        <v>0.3148744435618909</v>
+        <v>0.3425530980527114</v>
       </c>
       <c r="F8">
-        <v>6.475671139670908</v>
+        <v>0.8713022450870511</v>
       </c>
       <c r="G8">
-        <v>0.0008305702473073171</v>
+        <v>0.8031406165149662</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.592769869901872E-05</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5599607114363465</v>
       </c>
       <c r="K8">
-        <v>0.739885584266176</v>
+        <v>0.5407839831416297</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5365008390468233</v>
+        <v>0.8571403280857055</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5584898530357663</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.032081670174477</v>
+        <v>0.9807074079290601</v>
       </c>
       <c r="C9">
-        <v>0.1203730446992353</v>
+        <v>0.2072992532601603</v>
       </c>
       <c r="D9">
-        <v>0.4926740846867546</v>
+        <v>0.05298788449861647</v>
       </c>
       <c r="E9">
-        <v>0.4314774303354127</v>
+        <v>0.4580604427388479</v>
       </c>
       <c r="F9">
-        <v>8.391412312874792</v>
+        <v>1.028903251756873</v>
       </c>
       <c r="G9">
-        <v>0.0008090000392580475</v>
+        <v>0.9427040801350159</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0008248490386895124</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6126220149965604</v>
       </c>
       <c r="K9">
-        <v>1.033460829141774</v>
+        <v>0.5913214599211685</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7409184248609364</v>
+        <v>1.146453896725262</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7502844116315615</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.257162333485184</v>
+        <v>1.170917813401928</v>
       </c>
       <c r="C10">
-        <v>0.1493945710195703</v>
+        <v>0.2450381084620261</v>
       </c>
       <c r="D10">
-        <v>0.5689910008970571</v>
+        <v>0.05804319023462767</v>
       </c>
       <c r="E10">
-        <v>0.5222881285835896</v>
+        <v>0.5100592772693346</v>
       </c>
       <c r="F10">
-        <v>9.866510159276089</v>
+        <v>1.130884536189811</v>
       </c>
       <c r="G10">
-        <v>0.0007935103386582015</v>
+        <v>1.028897261618226</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.002968058440949051</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6434199563959169</v>
       </c>
       <c r="K10">
-        <v>1.265571848688808</v>
+        <v>0.6188812957206338</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9011100664630831</v>
+        <v>1.365618558801032</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8621885800545144</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.364022816634019</v>
+        <v>1.315083900665854</v>
       </c>
       <c r="C11">
-        <v>0.1633812236444783</v>
+        <v>0.2581903434152366</v>
       </c>
       <c r="D11">
-        <v>0.6047626368837768</v>
+        <v>0.07129850035941132</v>
       </c>
       <c r="E11">
-        <v>0.5651655301854461</v>
+        <v>0.284031487752344</v>
       </c>
       <c r="F11">
-        <v>10.55822170074902</v>
+        <v>1.002628584223629</v>
       </c>
       <c r="G11">
-        <v>0.0007864977711504603</v>
+        <v>0.87642709980679</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02103864266405964</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5607334910725541</v>
       </c>
       <c r="K11">
-        <v>1.376089993522186</v>
+        <v>0.519101330706583</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9770085031634679</v>
+        <v>1.509933261602214</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6677460054343527</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.405250315482959</v>
+        <v>1.399942184645283</v>
       </c>
       <c r="C12">
-        <v>0.1688137365932079</v>
+        <v>0.2613605047502006</v>
       </c>
       <c r="D12">
-        <v>0.6184928545359298</v>
+        <v>0.08358828011932218</v>
       </c>
       <c r="E12">
-        <v>0.5816718790684376</v>
+        <v>0.1421306379368481</v>
       </c>
       <c r="F12">
-        <v>10.82371340194987</v>
+        <v>0.8790099067965826</v>
       </c>
       <c r="G12">
-        <v>0.0007838428855913487</v>
+        <v>0.7395772934909957</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05917455017234374</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.489014389151464</v>
       </c>
       <c r="K12">
-        <v>1.418784010618168</v>
+        <v>0.4364096415878791</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.006268788683926</v>
+        <v>1.587990926475726</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5030855281740401</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.396335261696095</v>
+        <v>1.443094503220209</v>
       </c>
       <c r="C13">
-        <v>0.1676372838668669</v>
+        <v>0.256995411386157</v>
       </c>
       <c r="D13">
-        <v>0.6155270391151646</v>
+        <v>0.09561760042892331</v>
       </c>
       <c r="E13">
-        <v>0.5781041699970473</v>
+        <v>0.05649020609514288</v>
       </c>
       <c r="F13">
-        <v>10.76636668127531</v>
+        <v>0.7517021290976942</v>
       </c>
       <c r="G13">
-        <v>0.0007844147093021964</v>
+        <v>0.6066773694915355</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1143327800961913</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4213948401751253</v>
       </c>
       <c r="K13">
-        <v>1.409549219535648</v>
+        <v>0.3617728274524623</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9999424892548774</v>
+        <v>1.618685544844936</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3528624055559177</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.367398613274872</v>
+        <v>1.454431698839613</v>
       </c>
       <c r="C14">
-        <v>0.1638252856755571</v>
+        <v>0.2505688117423119</v>
       </c>
       <c r="D14">
-        <v>0.6058883328635716</v>
+        <v>0.1040514159437933</v>
       </c>
       <c r="E14">
-        <v>0.566517835496839</v>
+        <v>0.03002786651302536</v>
       </c>
       <c r="F14">
-        <v>10.57998896271693</v>
+        <v>0.6624592892351941</v>
       </c>
       <c r="G14">
-        <v>0.0007862793663038943</v>
+        <v>0.5174484014531515</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1632907099301804</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3768244351066983</v>
       </c>
       <c r="K14">
-        <v>1.379584711514042</v>
+        <v>0.3144199476014826</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.979404830078181</v>
+        <v>1.618747427679125</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2583243547968621</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.349777129699078</v>
+        <v>1.447720144985823</v>
       </c>
       <c r="C15">
-        <v>0.1615088029562628</v>
+        <v>0.2473958245153653</v>
       </c>
       <c r="D15">
-        <v>0.6000093953800274</v>
+        <v>0.1057252321961712</v>
       </c>
       <c r="E15">
-        <v>0.5594574147271985</v>
+        <v>0.0278602373006831</v>
       </c>
       <c r="F15">
-        <v>10.46630900188666</v>
+        <v>0.6392731659236048</v>
       </c>
       <c r="G15">
-        <v>0.0007874214669658346</v>
+        <v>0.4953825417793354</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.17566156209881</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3662991282029822</v>
       </c>
       <c r="K15">
-        <v>1.361344742741949</v>
+        <v>0.3036911603180563</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9668952554918846</v>
+        <v>1.608215830171048</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2356725847402501</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.250278458513407</v>
+        <v>1.354732331708902</v>
       </c>
       <c r="C16">
-        <v>0.1484982004061095</v>
+        <v>0.2320642103102557</v>
       </c>
       <c r="D16">
-        <v>0.5666771441755714</v>
+        <v>0.1005210828370835</v>
       </c>
       <c r="E16">
-        <v>0.5195211525914374</v>
+        <v>0.02644939100818028</v>
       </c>
       <c r="F16">
-        <v>9.821769148673894</v>
+        <v>0.62252203053486</v>
       </c>
       <c r="G16">
-        <v>0.0007939689581679781</v>
+        <v>0.4866470953578528</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1623635680928714</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3671024882574017</v>
       </c>
       <c r="K16">
-        <v>1.258459436659933</v>
+        <v>0.3072059538162613</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8962177102547457</v>
+        <v>1.505649094150726</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2237260759257467</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.190463235833249</v>
+        <v>1.277703584740607</v>
       </c>
       <c r="C17">
-        <v>0.140732957855974</v>
+        <v>0.2237353594592548</v>
       </c>
       <c r="D17">
-        <v>0.5465207717756471</v>
+        <v>0.09199633483368785</v>
       </c>
       <c r="E17">
-        <v>0.4954523226475445</v>
+        <v>0.03362093946523093</v>
       </c>
       <c r="F17">
-        <v>9.432049727825074</v>
+        <v>0.6564772074369714</v>
       </c>
       <c r="G17">
-        <v>0.0007979914594589579</v>
+        <v>0.5264122661732671</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1243444487897847</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3910463215236604</v>
       </c>
       <c r="K17">
-        <v>1.19669443309985</v>
+        <v>0.3345155561340967</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8536902404472144</v>
+        <v>1.427279358885016</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2617301837024435</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.156471752119558</v>
+        <v>1.206719048455625</v>
       </c>
       <c r="C18">
-        <v>0.1363388524430462</v>
+        <v>0.2204776541035329</v>
       </c>
       <c r="D18">
-        <v>0.5350244226905829</v>
+        <v>0.08059368630461705</v>
       </c>
       <c r="E18">
-        <v>0.4817530576617344</v>
+        <v>0.07780092049722143</v>
       </c>
       <c r="F18">
-        <v>9.209800709545959</v>
+        <v>0.7412581852300661</v>
       </c>
       <c r="G18">
-        <v>0.0008003085620824459</v>
+        <v>0.6176449666201052</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07152794954972563</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4400277608973511</v>
       </c>
       <c r="K18">
-        <v>1.16162367651998</v>
+        <v>0.3891374719595149</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.829508696370354</v>
+        <v>1.361540420513194</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.358741837982592</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.145030357730093</v>
+        <v>1.147301984499506</v>
       </c>
       <c r="C19">
-        <v>0.1348628459409582</v>
+        <v>0.221607338590573</v>
       </c>
       <c r="D19">
-        <v>0.5311477088874312</v>
+        <v>0.06901368720762235</v>
       </c>
       <c r="E19">
-        <v>0.4771382989858211</v>
+        <v>0.192299352088817</v>
       </c>
       <c r="F19">
-        <v>9.134862224415713</v>
+        <v>0.8668272154026084</v>
       </c>
       <c r="G19">
-        <v>0.0008010938076557575</v>
+        <v>0.7524917682070935</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02662589459853848</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5096677013466433</v>
       </c>
       <c r="K19">
-        <v>1.149823679252052</v>
+        <v>0.4678512465628515</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8213668307629902</v>
+        <v>1.31188839464167</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5148207178571411</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.19678715646009</v>
+        <v>1.121095617005352</v>
       </c>
       <c r="C20">
-        <v>0.1415519464705852</v>
+        <v>0.2350771815819428</v>
       </c>
       <c r="D20">
-        <v>0.5486561850990768</v>
+        <v>0.05676272143932692</v>
       </c>
       <c r="E20">
-        <v>0.4979992377300348</v>
+        <v>0.4949164604086675</v>
       </c>
       <c r="F20">
-        <v>9.473334685257385</v>
+        <v>1.102708381645812</v>
       </c>
       <c r="G20">
-        <v>0.0007975629273207329</v>
+        <v>1.004785258440222</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002271861899824312</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6345624794772107</v>
       </c>
       <c r="K20">
-        <v>1.203221441919254</v>
+        <v>0.6107552318218339</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8581879059960684</v>
+        <v>1.30810880076973</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.8314906615280009</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.375876293878548</v>
+        <v>1.257989454919965</v>
       </c>
       <c r="C21">
-        <v>0.1649410644298968</v>
+        <v>0.2649556220754903</v>
       </c>
       <c r="D21">
-        <v>0.6087141692745206</v>
+        <v>0.05893634464410979</v>
       </c>
       <c r="E21">
-        <v>0.5699133180036782</v>
+        <v>0.5876638414854867</v>
       </c>
       <c r="F21">
-        <v>10.63463105224599</v>
+        <v>1.215971309437776</v>
       </c>
       <c r="G21">
-        <v>0.0007857316914704967</v>
+        <v>1.109392931380214</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.004580858088676032</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6776543273987841</v>
       </c>
       <c r="K21">
-        <v>1.388361953023406</v>
+        <v>0.6546899758474112</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9854224115174759</v>
+        <v>1.469607300195719</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9646624836860056</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.497430852283571</v>
+        <v>1.351155121819829</v>
       </c>
       <c r="C22">
-        <v>0.181034082156998</v>
+        <v>0.2843744503823586</v>
       </c>
       <c r="D22">
-        <v>0.6490584551697509</v>
+        <v>0.06087418104842612</v>
       </c>
       <c r="E22">
-        <v>0.6185107054182453</v>
+        <v>0.6313623118033007</v>
       </c>
       <c r="F22">
-        <v>11.41466582271437</v>
+        <v>1.281073824927461</v>
       </c>
       <c r="G22">
-        <v>0.0007780004644492872</v>
+        <v>1.167622659418953</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.006446143076986877</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7007501469953752</v>
       </c>
       <c r="K22">
-        <v>1.51435536108994</v>
+        <v>0.6773815662441791</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.071652965216011</v>
+        <v>1.578241462732905</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.0367358657465</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.432097923837659</v>
+        <v>1.301379827867379</v>
       </c>
       <c r="C23">
-        <v>0.1723623702006023</v>
+        <v>0.2739965860314726</v>
       </c>
       <c r="D23">
-        <v>0.6274138562910423</v>
+        <v>0.05984235538812754</v>
       </c>
       <c r="E23">
-        <v>0.5924106710797616</v>
+        <v>0.6080063504723512</v>
       </c>
       <c r="F23">
-        <v>10.99620382174936</v>
+        <v>1.246160085744734</v>
       </c>
       <c r="G23">
-        <v>0.0007821282315590978</v>
+        <v>1.13638164170149</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.005413890920771047</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6883383155769991</v>
       </c>
       <c r="K23">
-        <v>1.446603233114899</v>
+        <v>0.665176314547999</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.025317300588924</v>
+        <v>1.520198186516097</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.9982274156427451</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.193926883854033</v>
+        <v>1.113893622781575</v>
       </c>
       <c r="C24">
-        <v>0.1411814646517513</v>
+        <v>0.2349681892180797</v>
       </c>
       <c r="D24">
-        <v>0.5476904811406484</v>
+        <v>0.05588116191906778</v>
       </c>
       <c r="E24">
-        <v>0.4968473501245612</v>
+        <v>0.52022658929112</v>
       </c>
       <c r="F24">
-        <v>9.454664173914864</v>
+        <v>1.117441422079025</v>
       </c>
       <c r="G24">
-        <v>0.0007977566522461313</v>
+        <v>1.021473243973347</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.002278628784317505</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6431271789216311</v>
       </c>
       <c r="K24">
-        <v>1.200269224434493</v>
+        <v>0.6209392176520794</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8561536826037397</v>
+        <v>1.301643602733776</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8532275904530024</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9524588725725494</v>
+        <v>0.9133140550009102</v>
       </c>
       <c r="C25">
-        <v>0.1102460026077949</v>
+        <v>0.1933151339199952</v>
       </c>
       <c r="D25">
-        <v>0.4653121531914479</v>
+        <v>0.05149554308788495</v>
       </c>
       <c r="E25">
-        <v>0.3991657690284072</v>
+        <v>0.4266656707058161</v>
       </c>
       <c r="F25">
-        <v>7.863098666337976</v>
+        <v>0.985114126144822</v>
       </c>
       <c r="G25">
-        <v>0.0008147592152258477</v>
+        <v>0.9038372123740999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0003552102621582343</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5977525867626952</v>
       </c>
       <c r="K25">
-        <v>0.9515678988676086</v>
+        <v>0.5769659699049043</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6841178241298422</v>
+        <v>1.067945980068885</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0.6982197361894933</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7665201132415973</v>
+        <v>0.7488567916269631</v>
       </c>
       <c r="C2">
-        <v>0.1628910175550828</v>
+        <v>0.1986502637022056</v>
       </c>
       <c r="D2">
-        <v>0.04816990490470729</v>
+        <v>0.05302147013396308</v>
       </c>
       <c r="E2">
-        <v>0.3584291506531017</v>
+        <v>0.3561721820569019</v>
       </c>
       <c r="F2">
-        <v>0.8923572123452459</v>
+        <v>0.7663301322033647</v>
       </c>
       <c r="G2">
-        <v>0.8217309746514303</v>
+        <v>0.663454966784613</v>
       </c>
       <c r="H2">
-        <v>1.136389268330262E-05</v>
+        <v>1.287085229506602E-06</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5668441298206943</v>
+        <v>0.5251207095884922</v>
       </c>
       <c r="K2">
-        <v>0.5473363939189682</v>
+        <v>0.4401046105287207</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2159367416505056</v>
       </c>
       <c r="M2">
-        <v>0.8969829463020176</v>
+        <v>0.1231924134301465</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5848887976784383</v>
+        <v>0.9289506560155303</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5927786338521912</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6673538745448298</v>
+        <v>0.6557786122216669</v>
       </c>
       <c r="C3">
-        <v>0.1423630125958084</v>
+        <v>0.1705463172680481</v>
       </c>
       <c r="D3">
-        <v>0.0458562812642036</v>
+        <v>0.04914129632370745</v>
       </c>
       <c r="E3">
-        <v>0.3124471975750751</v>
+        <v>0.3116045720101823</v>
       </c>
       <c r="F3">
-        <v>0.8319870607690234</v>
+        <v>0.7225496635904705</v>
       </c>
       <c r="G3">
-        <v>0.7684799635658948</v>
+        <v>0.6300711137123187</v>
       </c>
       <c r="H3">
-        <v>0.0003631412259099687</v>
+        <v>0.000249784369085182</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5472667550018855</v>
+        <v>0.5099919339369308</v>
       </c>
       <c r="K3">
-        <v>0.5287545035810624</v>
+        <v>0.4327592467054835</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2187567644012063</v>
       </c>
       <c r="M3">
-        <v>0.781516080024133</v>
+        <v>0.1156975105911897</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5083997822218151</v>
+        <v>0.80913900702771</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5152384958238656</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6065504878134504</v>
+        <v>0.5985406532713569</v>
       </c>
       <c r="C4">
-        <v>0.1297848962453401</v>
+        <v>0.1534296284544325</v>
       </c>
       <c r="D4">
-        <v>0.04440640214901492</v>
+        <v>0.04674797219682603</v>
       </c>
       <c r="E4">
-        <v>0.2842995973605369</v>
+        <v>0.2842769678401211</v>
       </c>
       <c r="F4">
-        <v>0.7960190959014994</v>
+        <v>0.6964259049482422</v>
       </c>
       <c r="G4">
-        <v>0.7368358769464294</v>
+        <v>0.6104552560547774</v>
       </c>
       <c r="H4">
-        <v>0.0008414666619662725</v>
+        <v>0.000631022581119467</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5358635382232109</v>
+        <v>0.5009220246462149</v>
       </c>
       <c r="K4">
-        <v>0.5180181138446756</v>
+        <v>0.4286657811046659</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.220541048088311</v>
       </c>
       <c r="M4">
-        <v>0.7107263354823914</v>
+        <v>0.1118838548995278</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4615359201698368</v>
+        <v>0.7356485252323921</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.467708064580961</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5817844656330635</v>
+        <v>0.5751875204101111</v>
       </c>
       <c r="C5">
-        <v>0.1246632860506907</v>
+        <v>0.1464862412152002</v>
       </c>
       <c r="D5">
-        <v>0.04380823779975174</v>
+        <v>0.04576988396032178</v>
       </c>
       <c r="E5">
-        <v>0.2728446925430887</v>
+        <v>0.2731452249692055</v>
       </c>
       <c r="F5">
-        <v>0.7816203470308238</v>
+        <v>0.685957248617207</v>
       </c>
       <c r="G5">
-        <v>0.724187429044008</v>
+        <v>0.6026676101658524</v>
       </c>
       <c r="H5">
-        <v>0.001098641587996996</v>
+        <v>0.000840718314712996</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5313637807368821</v>
+        <v>0.4972774637297732</v>
       </c>
       <c r="K5">
-        <v>0.5138029381885403</v>
+        <v>0.4270963153320615</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2212810564842904</v>
       </c>
       <c r="M5">
-        <v>0.6818941365180962</v>
+        <v>0.1105232920462527</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4424563775938566</v>
+        <v>0.7057099460642178</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4483526080437485</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5776725342397242</v>
+        <v>0.571307874144793</v>
       </c>
       <c r="C6">
-        <v>0.1238130222953657</v>
+        <v>0.1453351274781625</v>
       </c>
       <c r="D6">
-        <v>0.04370847184775428</v>
+        <v>0.04560730334342722</v>
       </c>
       <c r="E6">
-        <v>0.2709433777454109</v>
+        <v>0.2712969402314869</v>
       </c>
       <c r="F6">
-        <v>0.7792445481000385</v>
+        <v>0.6842292416793896</v>
       </c>
       <c r="G6">
-        <v>0.7221015639098169</v>
+        <v>0.6013864691154538</v>
       </c>
       <c r="H6">
-        <v>0.001144999578883032</v>
+        <v>0.0008787298323498227</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5306252574981727</v>
+        <v>0.4966752947564856</v>
       </c>
       <c r="K6">
-        <v>0.5131124129319318</v>
+        <v>0.4268414915900856</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2214047028030777</v>
       </c>
       <c r="M6">
-        <v>0.677107158000311</v>
+        <v>0.1103089282634073</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4392891021230412</v>
+        <v>0.7007389735093881</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4451392879329532</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6062164487931909</v>
+        <v>0.5984065782422476</v>
       </c>
       <c r="C7">
-        <v>0.1297158111246262</v>
+        <v>0.1529465644561299</v>
       </c>
       <c r="D7">
-        <v>0.04439836470359282</v>
+        <v>0.04686430346114889</v>
       </c>
       <c r="E7">
-        <v>0.2841450576366285</v>
+        <v>0.2841322356267142</v>
       </c>
       <c r="F7">
-        <v>0.795823885882875</v>
+        <v>0.6942164778678688</v>
       </c>
       <c r="G7">
-        <v>0.7366643192952864</v>
+        <v>0.6130509691710415</v>
       </c>
       <c r="H7">
-        <v>0.0008446877458201385</v>
+        <v>0.0006352929847857069</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5358022675419676</v>
+        <v>0.4944824942361095</v>
       </c>
       <c r="K7">
-        <v>0.517960630596356</v>
+        <v>0.427454629459973</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2200175523005967</v>
       </c>
       <c r="M7">
-        <v>0.7103374479294473</v>
+        <v>0.1115027366264982</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.461278544049172</v>
+        <v>0.734921612865989</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4673774266100281</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7323039845684889</v>
+        <v>0.7173846303466291</v>
       </c>
       <c r="C8">
-        <v>0.1558059718913256</v>
+        <v>0.1876100128930744</v>
       </c>
       <c r="D8">
-        <v>0.04737827330264821</v>
+        <v>0.05213425736199895</v>
       </c>
       <c r="E8">
-        <v>0.3425530980527114</v>
+        <v>0.3408145410797019</v>
       </c>
       <c r="F8">
-        <v>0.8713022450870511</v>
+        <v>0.7442467559785939</v>
       </c>
       <c r="G8">
-        <v>0.8031406165149662</v>
+        <v>0.6607922557883228</v>
       </c>
       <c r="H8">
-        <v>7.592769869901872E-05</v>
+        <v>3.882784496189728E-05</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5599607114363465</v>
+        <v>0.4989827907193103</v>
       </c>
       <c r="K8">
-        <v>0.5407839831416297</v>
+        <v>0.4335996504945747</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2152677982075453</v>
       </c>
       <c r="M8">
-        <v>0.8571403280857055</v>
+        <v>0.1191484122707571</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5584898530357663</v>
+        <v>0.8865304924305804</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5657857790670136</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9807074079290601</v>
+        <v>0.9496532284636601</v>
       </c>
       <c r="C9">
-        <v>0.2072992532601603</v>
+        <v>0.258255626571426</v>
       </c>
       <c r="D9">
-        <v>0.05298788449861647</v>
+        <v>0.06191321591906984</v>
       </c>
       <c r="E9">
-        <v>0.4580604427388479</v>
+        <v>0.4524746670821287</v>
       </c>
       <c r="F9">
-        <v>1.028903251756873</v>
+        <v>0.8565130715286386</v>
       </c>
       <c r="G9">
-        <v>0.9427040801350159</v>
+        <v>0.7522863064660186</v>
       </c>
       <c r="H9">
-        <v>0.0008248490386895124</v>
+        <v>0.0008244575571207946</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6126220149965604</v>
+        <v>0.5324958649499081</v>
       </c>
       <c r="K9">
-        <v>0.5913214599211685</v>
+        <v>0.453562165234743</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2083375655219228</v>
       </c>
       <c r="M9">
-        <v>1.146453896725262</v>
+        <v>0.1419218665138366</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7502844116315615</v>
+        <v>1.186053938998242</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7599593227799915</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.170917813401928</v>
+        <v>1.128516299984625</v>
       </c>
       <c r="C10">
-        <v>0.2450381084620261</v>
+        <v>0.3071405845093409</v>
       </c>
       <c r="D10">
-        <v>0.05804319023462767</v>
+        <v>0.0711590819675294</v>
       </c>
       <c r="E10">
-        <v>0.5100592772693346</v>
+        <v>0.5017273619042726</v>
       </c>
       <c r="F10">
-        <v>1.130884536189811</v>
+        <v>0.9160662280509939</v>
       </c>
       <c r="G10">
-        <v>1.028897261618226</v>
+        <v>0.8238661725961123</v>
       </c>
       <c r="H10">
-        <v>0.002968058440949051</v>
+        <v>0.002771937266863311</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6434199563959169</v>
+        <v>0.5151200049861444</v>
       </c>
       <c r="K10">
-        <v>0.6188812957206338</v>
+        <v>0.454911413523611</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1978740158040679</v>
       </c>
       <c r="M10">
-        <v>1.365618558801032</v>
+        <v>0.1565710237703186</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8621885800545144</v>
+        <v>1.409792408937932</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8726417681973402</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.315083900665854</v>
+        <v>1.274656437231272</v>
       </c>
       <c r="C11">
-        <v>0.2581903434152366</v>
+        <v>0.3115810907104049</v>
       </c>
       <c r="D11">
-        <v>0.07129850035941132</v>
+        <v>0.08941524741857165</v>
       </c>
       <c r="E11">
-        <v>0.284031487752344</v>
+        <v>0.2776348198489842</v>
       </c>
       <c r="F11">
-        <v>1.002628584223629</v>
+        <v>0.790898016816314</v>
       </c>
       <c r="G11">
-        <v>0.87642709980679</v>
+        <v>0.7351291692370694</v>
       </c>
       <c r="H11">
-        <v>0.02103864266405964</v>
+        <v>0.02080204470896518</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5607334910725541</v>
+        <v>0.3915597809679241</v>
       </c>
       <c r="K11">
-        <v>0.519101330706583</v>
+        <v>0.3701395417319731</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1636813523436622</v>
       </c>
       <c r="M11">
-        <v>1.509933261602214</v>
+        <v>0.1287221791603734</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6677460054343527</v>
+        <v>1.547642932780519</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6753307499711951</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.399942184645283</v>
+        <v>1.363386817735119</v>
       </c>
       <c r="C12">
-        <v>0.2613605047502006</v>
+        <v>0.306432824570237</v>
       </c>
       <c r="D12">
-        <v>0.08358828011932218</v>
+        <v>0.1043629555465913</v>
       </c>
       <c r="E12">
-        <v>0.1421306379368481</v>
+        <v>0.1375296858408213</v>
       </c>
       <c r="F12">
-        <v>0.8790099067965826</v>
+        <v>0.6860768706580913</v>
       </c>
       <c r="G12">
-        <v>0.7395772934909957</v>
+        <v>0.6397595515741443</v>
       </c>
       <c r="H12">
-        <v>0.05917455017234374</v>
+        <v>0.0589597020001662</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.489014389151464</v>
+        <v>0.3229519474528075</v>
       </c>
       <c r="K12">
-        <v>0.4364096415878791</v>
+        <v>0.3089240899354522</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1414394971961919</v>
       </c>
       <c r="M12">
-        <v>1.587990926475726</v>
+        <v>0.105573443656553</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5030855281740401</v>
+        <v>1.620010983070813</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5086718694304579</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.443094503220209</v>
+        <v>1.411400472720231</v>
       </c>
       <c r="C13">
-        <v>0.256995411386157</v>
+        <v>0.2946559952376333</v>
       </c>
       <c r="D13">
-        <v>0.09561760042892331</v>
+        <v>0.1163696749556777</v>
       </c>
       <c r="E13">
-        <v>0.05649020609514288</v>
+        <v>0.05362703861525553</v>
       </c>
       <c r="F13">
-        <v>0.7517021290976942</v>
+        <v>0.5927225418624289</v>
       </c>
       <c r="G13">
-        <v>0.6066773694915355</v>
+        <v>0.5296569022011823</v>
       </c>
       <c r="H13">
-        <v>0.1143327800961913</v>
+        <v>0.1141790774331213</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4213948401751253</v>
+        <v>0.2903200310205776</v>
       </c>
       <c r="K13">
-        <v>0.3617728274524623</v>
+        <v>0.2620023124369659</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1259926586882312</v>
       </c>
       <c r="M13">
-        <v>1.618685544844936</v>
+        <v>0.08545055939427826</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3528624055559177</v>
+        <v>1.646364163100856</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.35696080269053</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.454431698839613</v>
+        <v>1.426539762518246</v>
       </c>
       <c r="C14">
-        <v>0.2505688117423119</v>
+        <v>0.2834175746926633</v>
       </c>
       <c r="D14">
-        <v>0.1040514159437933</v>
+        <v>0.1233451459873152</v>
       </c>
       <c r="E14">
-        <v>0.03002786651302536</v>
+        <v>0.02829914528991129</v>
       </c>
       <c r="F14">
-        <v>0.6624592892351941</v>
+        <v>0.5321935824607067</v>
       </c>
       <c r="G14">
-        <v>0.5174484014531515</v>
+        <v>0.4495328530926628</v>
       </c>
       <c r="H14">
-        <v>0.1632907099301804</v>
+        <v>0.1631859793239983</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3768244351066983</v>
+        <v>0.2795357553379958</v>
       </c>
       <c r="K14">
-        <v>0.3144199476014826</v>
+        <v>0.2352627219368273</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1178004204288392</v>
       </c>
       <c r="M14">
-        <v>1.618747427679125</v>
+        <v>0.0729355511557408</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2583243547968621</v>
+        <v>1.643955502895352</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2615454914648971</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.447720144985823</v>
+        <v>1.42092770437182</v>
       </c>
       <c r="C15">
-        <v>0.2473958245153653</v>
+        <v>0.2791937802354312</v>
       </c>
       <c r="D15">
-        <v>0.1057252321961712</v>
+        <v>0.1241008314716225</v>
       </c>
       <c r="E15">
-        <v>0.0278602373006831</v>
+        <v>0.02644700220326723</v>
       </c>
       <c r="F15">
-        <v>0.6392731659236048</v>
+        <v>0.5184485823987188</v>
       </c>
       <c r="G15">
-        <v>0.4953825417793354</v>
+        <v>0.4275090371744028</v>
       </c>
       <c r="H15">
-        <v>0.17566156209881</v>
+        <v>0.1755750344836429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3662991282029822</v>
+        <v>0.2814283175547132</v>
       </c>
       <c r="K15">
-        <v>0.3036911603180563</v>
+        <v>0.2304545312409729</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1165951996114813</v>
       </c>
       <c r="M15">
-        <v>1.608215830171048</v>
+        <v>0.07018887174737642</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2356725847402501</v>
+        <v>1.633117538127294</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2387115679532812</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.354732331708902</v>
+        <v>1.329803969812502</v>
       </c>
       <c r="C16">
-        <v>0.2320642103102557</v>
+        <v>0.2644374317303573</v>
       </c>
       <c r="D16">
-        <v>0.1005210828370835</v>
+        <v>0.1145605890175716</v>
       </c>
       <c r="E16">
-        <v>0.02644939100818028</v>
+        <v>0.02562864399174833</v>
       </c>
       <c r="F16">
-        <v>0.62252203053486</v>
+        <v>0.5245524831612585</v>
       </c>
       <c r="G16">
-        <v>0.4866470953578528</v>
+        <v>0.4021507900191068</v>
       </c>
       <c r="H16">
-        <v>0.1623635680928714</v>
+        <v>0.1623386249331418</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3671024882574017</v>
+        <v>0.3231600429321873</v>
       </c>
       <c r="K16">
-        <v>0.3072059538162613</v>
+        <v>0.2437972601859002</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1234453863093403</v>
       </c>
       <c r="M16">
-        <v>1.505649094150726</v>
+        <v>0.07163324833405582</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2237260759257467</v>
+        <v>1.532983758303402</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2269580838024225</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.277703584740607</v>
+        <v>1.252572312189187</v>
       </c>
       <c r="C17">
-        <v>0.2237353594592548</v>
+        <v>0.2584632434066663</v>
       </c>
       <c r="D17">
-        <v>0.09199633483368785</v>
+        <v>0.1041828527109914</v>
       </c>
       <c r="E17">
-        <v>0.03362093946523093</v>
+        <v>0.03267481633190883</v>
       </c>
       <c r="F17">
-        <v>0.6564772074369714</v>
+        <v>0.5600209882026377</v>
       </c>
       <c r="G17">
-        <v>0.5264122661732671</v>
+        <v>0.4260776746384352</v>
       </c>
       <c r="H17">
-        <v>0.1243444487897847</v>
+        <v>0.124337249408029</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3910463215236604</v>
+        <v>0.3607280989618999</v>
       </c>
       <c r="K17">
-        <v>0.3345155561340967</v>
+        <v>0.2681026529232717</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1335500416415627</v>
       </c>
       <c r="M17">
-        <v>1.427279358885016</v>
+        <v>0.0788852841533263</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2617301837024435</v>
+        <v>1.457144921928176</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2655911467844589</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.206719048455625</v>
+        <v>1.179257493785371</v>
       </c>
       <c r="C18">
-        <v>0.2204776541035329</v>
+        <v>0.2602563669448443</v>
       </c>
       <c r="D18">
-        <v>0.08059368630461705</v>
+        <v>0.09206942778030935</v>
       </c>
       <c r="E18">
-        <v>0.07780092049722143</v>
+        <v>0.07598320187369723</v>
       </c>
       <c r="F18">
-        <v>0.7412581852300661</v>
+        <v>0.6308975557076266</v>
       </c>
       <c r="G18">
-        <v>0.6176449666201052</v>
+        <v>0.4936168471346178</v>
       </c>
       <c r="H18">
-        <v>0.07152794954972563</v>
+        <v>0.07152355878115202</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4400277608973511</v>
+        <v>0.4075756630161607</v>
       </c>
       <c r="K18">
-        <v>0.3891374719595149</v>
+        <v>0.3089202986751651</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1493129883776056</v>
       </c>
       <c r="M18">
-        <v>1.361540420513194</v>
+        <v>0.09336998563772525</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.358741837982592</v>
+        <v>1.395006663327734</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3639056015956541</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.147301984499506</v>
+        <v>1.115917405450858</v>
       </c>
       <c r="C19">
-        <v>0.221607338590573</v>
+        <v>0.268649755308445</v>
       </c>
       <c r="D19">
-        <v>0.06901368720762235</v>
+        <v>0.0801637967825144</v>
       </c>
       <c r="E19">
-        <v>0.192299352088817</v>
+        <v>0.1888048337373007</v>
       </c>
       <c r="F19">
-        <v>0.8668272154026084</v>
+        <v>0.7307141145643001</v>
       </c>
       <c r="G19">
-        <v>0.7524917682070935</v>
+        <v>0.5960335797362291</v>
       </c>
       <c r="H19">
-        <v>0.02662589459853848</v>
+        <v>0.02661195984242681</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5096677013466433</v>
+        <v>0.4642698796570812</v>
       </c>
       <c r="K19">
-        <v>0.4678512465628515</v>
+        <v>0.3646810068248953</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1701080520016518</v>
       </c>
       <c r="M19">
-        <v>1.31188839464167</v>
+        <v>0.1144478688359634</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5148207178571411</v>
+        <v>1.349662852616234</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5219257942357984</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.121095617005352</v>
+        <v>1.081108400135776</v>
       </c>
       <c r="C20">
-        <v>0.2350771815819428</v>
+        <v>0.2956631749653695</v>
       </c>
       <c r="D20">
-        <v>0.05676272143932692</v>
+        <v>0.06822930605291333</v>
       </c>
       <c r="E20">
-        <v>0.4949164604086675</v>
+        <v>0.4873177198152945</v>
       </c>
       <c r="F20">
-        <v>1.102708381645812</v>
+        <v>0.906604713380915</v>
       </c>
       <c r="G20">
-        <v>1.004785258440222</v>
+        <v>0.7939218966635622</v>
       </c>
       <c r="H20">
-        <v>0.002271861899824312</v>
+        <v>0.002152325221287388</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6345624794772107</v>
+        <v>0.540419815388816</v>
       </c>
       <c r="K20">
-        <v>0.6107552318218339</v>
+        <v>0.4579356844381337</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2018232963496338</v>
       </c>
       <c r="M20">
-        <v>1.30810880076973</v>
+        <v>0.1538946614807486</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8314906615280009</v>
+        <v>1.352324292179986</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8420093459441631</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.257989454919965</v>
+        <v>1.211570309245246</v>
       </c>
       <c r="C21">
-        <v>0.2649556220754903</v>
+        <v>0.3280592375809022</v>
       </c>
       <c r="D21">
-        <v>0.05893634464410979</v>
+        <v>0.07636446567286725</v>
       </c>
       <c r="E21">
-        <v>0.5876638414854867</v>
+        <v>0.5773781098986177</v>
       </c>
       <c r="F21">
-        <v>1.215971309437776</v>
+        <v>0.9407012392111085</v>
       </c>
       <c r="G21">
-        <v>1.109392931380214</v>
+        <v>0.9334106632047252</v>
       </c>
       <c r="H21">
-        <v>0.004580858088676032</v>
+        <v>0.0041474319874788</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6776543273987841</v>
+        <v>0.436652506905844</v>
       </c>
       <c r="K21">
-        <v>0.6546899758474112</v>
+        <v>0.453380494654219</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1919120314573561</v>
       </c>
       <c r="M21">
-        <v>1.469607300195719</v>
+        <v>0.1636561356797124</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9646624836860056</v>
+        <v>1.511447485342813</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9747151506374294</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.351155121819829</v>
+        <v>1.300962412129849</v>
       </c>
       <c r="C22">
-        <v>0.2843744503823586</v>
+        <v>0.3479037853213356</v>
       </c>
       <c r="D22">
-        <v>0.06087418104842612</v>
+        <v>0.08273528905206007</v>
       </c>
       <c r="E22">
-        <v>0.6313623118033007</v>
+        <v>0.6194793271764567</v>
       </c>
       <c r="F22">
-        <v>1.281073824927461</v>
+        <v>0.9528858941264104</v>
       </c>
       <c r="G22">
-        <v>1.167622659418953</v>
+        <v>1.024370578794844</v>
       </c>
       <c r="H22">
-        <v>0.006446143076986877</v>
+        <v>0.005739027613587799</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7007501469953752</v>
+        <v>0.3687942812475029</v>
       </c>
       <c r="K22">
-        <v>0.6773815662441791</v>
+        <v>0.444777821270506</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1836841241212461</v>
       </c>
       <c r="M22">
-        <v>1.578241462732905</v>
+        <v>0.1680226781461442</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.0367358657465</v>
+        <v>1.617496186680768</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.046092948876293</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.301379827867379</v>
+        <v>1.252695441404597</v>
       </c>
       <c r="C23">
-        <v>0.2739965860314726</v>
+        <v>0.3384077033545339</v>
       </c>
       <c r="D23">
-        <v>0.05984235538812754</v>
+        <v>0.07888670806138975</v>
       </c>
       <c r="E23">
-        <v>0.6080063504723512</v>
+        <v>0.596951791183912</v>
       </c>
       <c r="F23">
-        <v>1.246160085744734</v>
+        <v>0.9515880564676422</v>
       </c>
       <c r="G23">
-        <v>1.13638164170149</v>
+        <v>0.9674107957937679</v>
       </c>
       <c r="H23">
-        <v>0.005413890920771047</v>
+        <v>0.004867628202648189</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6883383155769991</v>
+        <v>0.4164720277501743</v>
       </c>
       <c r="K23">
-        <v>0.665176314547999</v>
+        <v>0.4521899191381635</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1890077148421199</v>
       </c>
       <c r="M23">
-        <v>1.520198186516097</v>
+        <v>0.1668418873248783</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9982274156427451</v>
+        <v>1.561760475846768</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.008170705937815</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.113893622781575</v>
+        <v>1.073583279648119</v>
       </c>
       <c r="C24">
-        <v>0.2349681892180797</v>
+        <v>0.2963136687719157</v>
       </c>
       <c r="D24">
-        <v>0.05588116191906778</v>
+        <v>0.06716789486340957</v>
       </c>
       <c r="E24">
-        <v>0.52022658929112</v>
+        <v>0.512366912953965</v>
       </c>
       <c r="F24">
-        <v>1.117441422079025</v>
+        <v>0.9184885517592676</v>
       </c>
       <c r="G24">
-        <v>1.021473243973347</v>
+        <v>0.80620505129734</v>
       </c>
       <c r="H24">
-        <v>0.002278628784317505</v>
+        <v>0.002154278184926861</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6431271789216311</v>
+        <v>0.5481102562565923</v>
       </c>
       <c r="K24">
-        <v>0.6209392176520794</v>
+        <v>0.4653051141646856</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2046323251914366</v>
       </c>
       <c r="M24">
-        <v>1.301643602733776</v>
+        <v>0.156607622427444</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8532275904530024</v>
+        <v>1.34624524053001</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8639968000998834</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9133140550009102</v>
+        <v>0.8865498719352161</v>
       </c>
       <c r="C25">
-        <v>0.1933151339199952</v>
+        <v>0.2395648467371956</v>
       </c>
       <c r="D25">
-        <v>0.05149554308788495</v>
+        <v>0.05907487600496353</v>
       </c>
       <c r="E25">
-        <v>0.4266656707058161</v>
+        <v>0.4221672532382712</v>
       </c>
       <c r="F25">
-        <v>0.985114126144822</v>
+        <v>0.8282452368857491</v>
       </c>
       <c r="G25">
-        <v>0.9038372123740999</v>
+        <v>0.7226795706780962</v>
       </c>
       <c r="H25">
-        <v>0.0003552102621582343</v>
+        <v>0.0003820407601773379</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5977525867626952</v>
+        <v>0.5320185523987107</v>
       </c>
       <c r="K25">
-        <v>0.5769659699049043</v>
+        <v>0.449369980507754</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2107965697146703</v>
       </c>
       <c r="M25">
-        <v>1.067945980068885</v>
+        <v>0.1356330630492266</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6982197361894933</v>
+        <v>1.1053180246507</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.7073867716105866</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
